--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_06.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_06.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hiroshi Kobayashi</t>
+          <t>Naoto Ikeda</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hiroshi Kobayashi</t>
+          <t>Naoto Ikeda</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hiroshi Kobayashi</t>
+          <t>Naoto Ikeda</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hiroshi Kobayashi</t>
+          <t>Naoto Ikeda</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hiroshi Kobayashi</t>
+          <t>Naoto Ikeda</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hiroshi Kobayashi</t>
+          <t>Naoto Ikeda</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Hiroshi Kobayashi</t>
+          <t>Naoto Ikeda</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hiroshi Kobayashi</t>
+          <t>Naoto Ikeda</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Hiroshi Kobayashi</t>
+          <t>Naoto Ikeda</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Hiroshi Kobayashi</t>
+          <t>Naoto Ikeda</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Hiroshi Kobayashi</t>
+          <t>Naoto Ikeda</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Hiroshi Kobayashi</t>
+          <t>Naoto Ikeda</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Hiroshi Kobayashi</t>
+          <t>Naoto Ikeda</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Hiroshi Kobayashi</t>
+          <t>Naoto Ikeda</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Hiroshi Kobayashi</t>
+          <t>Naoto Ikeda</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
